--- a/src/main/resources/studentPreferences60.xlsx
+++ b/src/main/resources/studentPreferences60.xlsx
@@ -53,214 +53,475 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Lyssa</t>
-  </si>
-  <si>
-    <t>Scherer</t>
-  </si>
-  <si>
-    <t>looking after children in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>making bad movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing mystery stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu mythos</t>
+    <t>Shaylah</t>
+  </si>
+  <si>
+    <t>Braidford</t>
+  </si>
+  <si>
+    <t>French history and the Dagon mythos</t>
   </si>
   <si>
     <t>DC Comics and the Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Bad Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>amassing wealth in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>losing court cases in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Priceline and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Relativity and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Taxi Driver and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TJ Hooker and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre-Revolutionary France and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> talking to mirrors in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Apolitical Cartoons and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Middlewick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Oratory and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>expressing violent urges in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Caprice</t>
+  </si>
+  <si>
+    <t>Shacklady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  British class politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Roshelle</t>
+  </si>
+  <si>
+    <t>Plampin</t>
+  </si>
+  <si>
+    <t>Star Trek and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>playing the piano in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Ginny</t>
+  </si>
+  <si>
+    <t>Eaglen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>revolutionizing physics in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>writing folksy fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>breaking heads in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Xaviera</t>
+  </si>
+  <si>
+    <t>Shimmings</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roman politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Aeriell</t>
+  </si>
+  <si>
+    <t>Van Schafflaer</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu mythos</t>
   </si>
   <si>
     <t>American literature and the Cthulu mythos</t>
   </si>
   <si>
-    <t>plagiarizing political speeches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Abbie</t>
-  </si>
-  <si>
-    <t>Slite</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>assassinating presidents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Blinny</t>
-  </si>
-  <si>
-    <t>Clendennen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>producing Hipbop records in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>fighting the resistance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rachelle</t>
-  </si>
-  <si>
-    <t>Love</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Karol</t>
-  </si>
-  <si>
-    <t>Barosch</t>
-  </si>
-  <si>
-    <t>English literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lyndell</t>
-  </si>
-  <si>
-    <t>Bjorkan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Renaissance and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>the Law and the Cthulu mythos</t>
+    <t xml:space="preserve"> Rhetoric and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Elwira</t>
+  </si>
+  <si>
+    <t>Kestin</t>
   </si>
   <si>
     <t xml:space="preserve"> British humour and the Dagon mythos</t>
   </si>
   <si>
-    <t>Wilma</t>
-  </si>
-  <si>
-    <t>Spriggin</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seeking revenge in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sapphira</t>
-  </si>
-  <si>
-    <t>Ridde</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American South and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>McHugh</t>
-  </si>
-  <si>
-    <t>American football and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing rap songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Coreen</t>
-  </si>
-  <si>
-    <t>Preshous</t>
-  </si>
-  <si>
-    <t>Caz</t>
-  </si>
-  <si>
-    <t>Fulker</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Alano</t>
-  </si>
-  <si>
-    <t>Vanyutin</t>
-  </si>
-  <si>
-    <t>Florence and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Craggie</t>
-  </si>
-  <si>
-    <t>De Biasio</t>
-  </si>
-  <si>
-    <t>Vally</t>
-  </si>
-  <si>
-    <t>Gawthrop</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Rignold</t>
+    <t>Russian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Curt</t>
+  </si>
+  <si>
+    <t>Pesticcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Motor industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Balchin</t>
+  </si>
+  <si>
+    <t>Spenser</t>
+  </si>
+  <si>
+    <t>Pichmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Far Side and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>Haryngton</t>
+  </si>
+  <si>
+    <t>Malynda</t>
+  </si>
+  <si>
+    <t>Collocott</t>
+  </si>
+  <si>
+    <t>Zane</t>
+  </si>
+  <si>
+    <t>Langstaff</t>
+  </si>
+  <si>
+    <t>American comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Lacie</t>
+  </si>
+  <si>
+    <t>Chupin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Bethany</t>
+  </si>
+  <si>
+    <t>Scorer</t>
+  </si>
+  <si>
+    <t>Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Muggach</t>
+  </si>
+  <si>
+    <t>Sheeree</t>
+  </si>
+  <si>
+    <t>Hobden</t>
+  </si>
+  <si>
+    <t>Bernadine</t>
+  </si>
+  <si>
+    <t>Airds</t>
+  </si>
+  <si>
+    <t>Boyd</t>
+  </si>
+  <si>
+    <t>Verman</t>
+  </si>
+  <si>
+    <t>Franklyn</t>
+  </si>
+  <si>
+    <t>Greader</t>
+  </si>
+  <si>
+    <t>Alaster</t>
+  </si>
+  <si>
+    <t>Jacobsohn</t>
+  </si>
+  <si>
+    <t>Isak</t>
+  </si>
+  <si>
+    <t>Nizard</t>
+  </si>
+  <si>
+    <t>Karalee</t>
+  </si>
+  <si>
+    <t>Funcheon</t>
+  </si>
+  <si>
+    <t>the Roman Empire and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Kermy</t>
+  </si>
+  <si>
+    <t>McQuillen</t>
+  </si>
+  <si>
+    <t>Vernice</t>
+  </si>
+  <si>
+    <t>Iacomelli</t>
+  </si>
+  <si>
+    <t>Lyndel</t>
+  </si>
+  <si>
+    <t>Tomson</t>
+  </si>
+  <si>
+    <t>Erinna</t>
+  </si>
+  <si>
+    <t>Ackerley</t>
+  </si>
+  <si>
+    <t>Dannie</t>
+  </si>
+  <si>
+    <t>Mame</t>
+  </si>
+  <si>
+    <t>Feaveryear</t>
+  </si>
+  <si>
+    <t>Carmelita</t>
+  </si>
+  <si>
+    <t>Filippov</t>
+  </si>
+  <si>
+    <t>Milty</t>
+  </si>
+  <si>
+    <t>Sommerfeld</t>
+  </si>
+  <si>
+    <t>Tobiah</t>
+  </si>
+  <si>
+    <t>Bastock</t>
+  </si>
+  <si>
+    <t>Tully</t>
+  </si>
+  <si>
+    <t>Urpeth</t>
+  </si>
+  <si>
+    <t>Raoul</t>
+  </si>
+  <si>
+    <t>Franscioni</t>
+  </si>
+  <si>
+    <t>Farra</t>
+  </si>
+  <si>
+    <t>Muzzollo</t>
+  </si>
+  <si>
+    <t>Malina</t>
+  </si>
+  <si>
+    <t>Josum</t>
+  </si>
+  <si>
+    <t>Barbey</t>
+  </si>
+  <si>
+    <t>Baiden</t>
+  </si>
+  <si>
+    <t>Artair</t>
+  </si>
+  <si>
+    <t>Napleton</t>
+  </si>
+  <si>
+    <t>Shara</t>
+  </si>
+  <si>
+    <t>Fewlass</t>
+  </si>
+  <si>
+    <t>Marchelle</t>
+  </si>
+  <si>
+    <t>Weaver</t>
+  </si>
+  <si>
+    <t>Zeke</t>
+  </si>
+  <si>
+    <t>Koubek</t>
+  </si>
+  <si>
+    <t>Anderea</t>
+  </si>
+  <si>
+    <t>Halls</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>McBrearty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> European history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Livvie</t>
+  </si>
+  <si>
+    <t>Harmour</t>
+  </si>
+  <si>
+    <t>Sigismondo</t>
+  </si>
+  <si>
+    <t>Godlonton</t>
+  </si>
+  <si>
+    <t>Lilyan</t>
+  </si>
+  <si>
+    <t>Nourse</t>
+  </si>
+  <si>
+    <t>Myrvyn</t>
+  </si>
+  <si>
+    <t>Navein</t>
+  </si>
+  <si>
+    <t>Devon</t>
+  </si>
+  <si>
+    <t>Stovold</t>
+  </si>
+  <si>
+    <t>Sergent</t>
+  </si>
+  <si>
+    <t>aManger</t>
+  </si>
+  <si>
+    <t>Sammy</t>
+  </si>
+  <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Josie</t>
+  </si>
+  <si>
+    <t>Ewbanks</t>
+  </si>
+  <si>
+    <t>Othello</t>
+  </si>
+  <si>
+    <t>Clemmen</t>
   </si>
   <si>
     <t>Mirabella</t>
@@ -269,271 +530,10 @@
     <t>Goodbourn</t>
   </si>
   <si>
-    <t>Kristoffer</t>
-  </si>
-  <si>
-    <t>Whalley</t>
-  </si>
-  <si>
-    <t>Jordain</t>
-  </si>
-  <si>
-    <t>Wrightim</t>
-  </si>
-  <si>
-    <t>British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jule</t>
-  </si>
-  <si>
-    <t>Bullan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crime and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Madel</t>
-  </si>
-  <si>
-    <t>Shortall</t>
-  </si>
-  <si>
-    <t>Agneta</t>
-  </si>
-  <si>
-    <t>Aveling</t>
-  </si>
-  <si>
-    <t>Wolfgang</t>
-  </si>
-  <si>
-    <t>Grote</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Fania</t>
-  </si>
-  <si>
-    <t>Valentine</t>
-  </si>
-  <si>
-    <t>Rosemary</t>
-  </si>
-  <si>
-    <t>Drohan</t>
-  </si>
-  <si>
-    <t>Ernest</t>
-  </si>
-  <si>
-    <t>Coneau</t>
-  </si>
-  <si>
-    <t>American literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing pranks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>The Matrix and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Vassili</t>
-  </si>
-  <si>
-    <t>Tickel</t>
-  </si>
-  <si>
-    <t>Dorris</t>
-  </si>
-  <si>
-    <t>Brompton</t>
-  </si>
-  <si>
-    <t>the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Evan</t>
-  </si>
-  <si>
-    <t>Muggach</t>
-  </si>
-  <si>
-    <t>Skyler</t>
-  </si>
-  <si>
-    <t>Pleasaunce</t>
-  </si>
-  <si>
-    <t>Barnie</t>
-  </si>
-  <si>
-    <t>Danev</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Darrel</t>
-  </si>
-  <si>
-    <t>Danelut</t>
-  </si>
-  <si>
-    <t>Ardelle</t>
-  </si>
-  <si>
-    <t>Cartin</t>
-  </si>
-  <si>
-    <t>Shay</t>
-  </si>
-  <si>
-    <t>Sysland</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Audie</t>
-  </si>
-  <si>
-    <t>Rouch</t>
-  </si>
-  <si>
-    <t>Helenka</t>
-  </si>
-  <si>
-    <t>Vynoll</t>
-  </si>
-  <si>
-    <t>Oran</t>
-  </si>
-  <si>
-    <t>McKean</t>
-  </si>
-  <si>
-    <t>Sheelah</t>
-  </si>
-  <si>
-    <t>Harbar</t>
-  </si>
-  <si>
-    <t>Darby</t>
-  </si>
-  <si>
-    <t>Mapplebeck</t>
-  </si>
-  <si>
-    <t>Tilly</t>
-  </si>
-  <si>
-    <t>Gaskell</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cherri</t>
-  </si>
-  <si>
-    <t>Durdy</t>
-  </si>
-  <si>
-    <t>Hector</t>
-  </si>
-  <si>
-    <t>Plaid</t>
-  </si>
-  <si>
-    <t>Clark</t>
-  </si>
-  <si>
-    <t>Demko</t>
-  </si>
-  <si>
-    <t>Wain</t>
-  </si>
-  <si>
-    <t>Bather</t>
-  </si>
-  <si>
-    <t>Bekki</t>
-  </si>
-  <si>
-    <t>Faithfull</t>
-  </si>
-  <si>
-    <t>Dannie</t>
-  </si>
-  <si>
-    <t>Van Schafflaer</t>
-  </si>
-  <si>
-    <t>Janette</t>
-  </si>
-  <si>
-    <t>Groveham</t>
-  </si>
-  <si>
-    <t>Kit</t>
-  </si>
-  <si>
-    <t>Kolyagin</t>
-  </si>
-  <si>
-    <t>Micheil</t>
-  </si>
-  <si>
-    <t>Jersch</t>
-  </si>
-  <si>
-    <t>Adriano</t>
-  </si>
-  <si>
-    <t>Loughhead</t>
-  </si>
-  <si>
-    <t>Monroe</t>
-  </si>
-  <si>
-    <t>Rosander</t>
-  </si>
-  <si>
-    <t>Suzi</t>
-  </si>
-  <si>
-    <t>Roubeix</t>
-  </si>
-  <si>
-    <t>Iorgo</t>
-  </si>
-  <si>
-    <t>Menego</t>
-  </si>
-  <si>
-    <t>Rani</t>
-  </si>
-  <si>
-    <t>Lampart</t>
-  </si>
-  <si>
-    <t>Isabella</t>
-  </si>
-  <si>
-    <t>Judkin</t>
-  </si>
-  <si>
-    <t>Michal</t>
-  </si>
-  <si>
-    <t>Sprade</t>
+    <t>Marena</t>
+  </si>
+  <si>
+    <t>Menpes</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>5.50802125E8</v>
+        <v>5.17062029E8</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -674,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>5.50802125E8</v>
+        <v>5.17062029E8</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -689,19 +689,19 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
         <v>30</v>
@@ -715,7 +715,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>3.80557469E9</v>
+        <v>4.01197192E9</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -724,517 +724,517 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
         <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>2.890889055E9</v>
+        <v>5.581396903E9</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.59178159E8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.956756186E9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>5.242359317E9</v>
+        <v>7.64615006E9</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.098446542E9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.251555373E9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.345427246E9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.093684195E9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.981705294E9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.863473747E9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C11" t="n">
-        <v>2.888353386E9</v>
+        <v>5.098446542E9</v>
       </c>
       <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" t="s">
-        <v>26</v>
-      </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C12" t="n">
-        <v>2.888353386E9</v>
+        <v>2.913954937E9</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C13" t="n">
-        <v>6.905934778E9</v>
+        <v>6.74210168E8</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="L13" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>4.350742591E9</v>
+        <v>7.317095954E9</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C15" t="n">
-        <v>9.96224864E8</v>
+        <v>5.79888876E9</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
         <v>37</v>
       </c>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s">
-        <v>53</v>
-      </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C16" t="n">
-        <v>8.361912221E9</v>
+        <v>7.678783231E9</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="L16" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
         <v>24</v>
@@ -1242,778 +1242,778 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C17" t="n">
-        <v>6.50465645E8</v>
+        <v>5.116954054E9</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
         <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M17" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C18" t="n">
-        <v>4.972846563E9</v>
+        <v>9.963166994E9</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" t="s">
-        <v>59</v>
-      </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C19" t="n">
-        <v>6.45669088E9</v>
+        <v>8.138441997E9</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C20" t="n">
-        <v>4.209217402E9</v>
+        <v>5.140216794E9</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C21" t="n">
-        <v>5.479501593E9</v>
+        <v>6.981951604E9</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.548283026E9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="n">
-        <v>5.293494983E9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" t="s">
-        <v>89</v>
-      </c>
       <c r="L22" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C23" t="n">
-        <v>3.813550076E9</v>
+        <v>8.91692955E9</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C24" t="n">
-        <v>1.120170331E9</v>
+        <v>1.755324158E9</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" t="s">
         <v>26</v>
       </c>
-      <c r="L24" t="s">
-        <v>35</v>
-      </c>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C25" t="n">
-        <v>1.464659001E9</v>
+        <v>2.694860612E9</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L25" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C26" t="n">
-        <v>7.725162245E9</v>
+        <v>2.664850725E9</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="J26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" t="s">
         <v>19</v>
       </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
       <c r="L26" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M26" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C27" t="n">
-        <v>2.368379023E9</v>
+        <v>2.3345654E7</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
         <v>41</v>
       </c>
-      <c r="G27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" t="s">
-        <v>66</v>
-      </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="M27" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C28" t="n">
-        <v>4.008635728E9</v>
+        <v>1.859925444E9</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="L28" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="M28" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C29" t="n">
-        <v>4.22160553E8</v>
+        <v>5.84557521E9</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C30" t="n">
-        <v>8.036966626E9</v>
+        <v>2.566612082E9</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C31" t="n">
-        <v>5.140216794E9</v>
+        <v>2.533427487E9</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K31" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="L31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="C32" t="n">
-        <v>7.262376981E9</v>
+        <v>5.992727338E9</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I32" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K32" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C33" t="n">
-        <v>7.747248546E9</v>
+        <v>1.503230976E9</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L33" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M33" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C34" t="n">
-        <v>8.329785894E9</v>
+        <v>5.438446341E9</v>
       </c>
       <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
         <v>18</v>
       </c>
-      <c r="E34" t="s">
-        <v>42</v>
-      </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="K34" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="L34" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C35" t="n">
-        <v>1.547547223E9</v>
+        <v>1.966233706E9</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="K35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M35" t="s">
         <v>18</v>
@@ -2021,43 +2021,43 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C36" t="n">
-        <v>6.329142944E9</v>
+        <v>5.806624791E9</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K36" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L36" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -2068,37 +2068,37 @@
         <v>130</v>
       </c>
       <c r="C37" t="n">
-        <v>6.655368898E9</v>
+        <v>5.318934199E9</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s">
         <v>20</v>
       </c>
       <c r="K37" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="L37" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -2109,37 +2109,37 @@
         <v>132</v>
       </c>
       <c r="C38" t="n">
-        <v>4.1656206E7</v>
+        <v>3.354471084E9</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="L38" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M38" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
@@ -2150,37 +2150,37 @@
         <v>134</v>
       </c>
       <c r="C39" t="n">
-        <v>6.834265278E9</v>
+        <v>8.407967758E9</v>
       </c>
       <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
         <v>30</v>
       </c>
-      <c r="E39" t="s">
-        <v>67</v>
-      </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="J39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K39" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M39" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -2191,365 +2191,365 @@
         <v>136</v>
       </c>
       <c r="C40" t="n">
-        <v>3.47441999E9</v>
+        <v>1.33333345E8</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" t="s">
         <v>33</v>
       </c>
-      <c r="I40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" t="s">
-        <v>42</v>
-      </c>
       <c r="K40" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="L40" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="C41" t="n">
-        <v>2.391397916E9</v>
+        <v>4.01197192E9</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M41" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" t="n">
-        <v>6.25273085E8</v>
+        <v>2.02092367E8</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s">
         <v>48</v>
       </c>
-      <c r="J42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" t="s">
-        <v>59</v>
-      </c>
       <c r="L42" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M42" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7.977909301E9</v>
+      </c>
+      <c r="D43" t="s">
         <v>74</v>
       </c>
-      <c r="B43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" t="n">
-        <v>9.96224864E8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>25</v>
-      </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J43" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="L43" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M43" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s">
         <v>142</v>
       </c>
-      <c r="B44" t="s">
-        <v>143</v>
-      </c>
       <c r="C44" t="n">
-        <v>3.41415951E9</v>
+        <v>9.551000559E9</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
         <v>41</v>
       </c>
-      <c r="F44" t="s">
-        <v>68</v>
-      </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="L44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
         <v>144</v>
       </c>
-      <c r="B45" t="s">
-        <v>145</v>
-      </c>
       <c r="C45" t="n">
-        <v>9.286774539E9</v>
+        <v>2.075366384E9</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J45" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="K45" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="L45" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="M45" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
         <v>146</v>
       </c>
-      <c r="B46" t="s">
-        <v>147</v>
-      </c>
       <c r="C46" t="n">
-        <v>6.51720155E9</v>
+        <v>7.087681295E9</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H46" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L46" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M46" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
         <v>148</v>
       </c>
-      <c r="B47" t="s">
-        <v>149</v>
-      </c>
       <c r="C47" t="n">
-        <v>6.495517694E9</v>
+        <v>7.292247802E9</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="I47" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L47" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="M47" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
         <v>150</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="n">
+        <v>1496062.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="s">
         <v>151</v>
       </c>
-      <c r="C48" t="n">
-        <v>7.352717283E9</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" t="s">
-        <v>128</v>
-      </c>
-      <c r="I48" t="s">
-        <v>33</v>
-      </c>
-      <c r="J48" t="s">
-        <v>45</v>
-      </c>
-      <c r="K48" t="s">
-        <v>25</v>
-      </c>
       <c r="L48" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M48" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
@@ -2560,37 +2560,37 @@
         <v>153</v>
       </c>
       <c r="C49" t="n">
-        <v>5.992727338E9</v>
+        <v>3.921044913E9</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F49" t="s">
         <v>37</v>
       </c>
       <c r="G49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" t="s">
         <v>20</v>
       </c>
-      <c r="H49" t="s">
-        <v>121</v>
-      </c>
-      <c r="I49" t="s">
-        <v>52</v>
-      </c>
-      <c r="J49" t="s">
-        <v>37</v>
-      </c>
       <c r="K49" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="L49" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="M49" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -2601,37 +2601,37 @@
         <v>155</v>
       </c>
       <c r="C50" t="n">
-        <v>2.194430269E9</v>
+        <v>8.671182958E9</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I50" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="J50" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="K50" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
       </c>
       <c r="M50" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -2642,119 +2642,119 @@
         <v>157</v>
       </c>
       <c r="C51" t="n">
-        <v>3.863210851E9</v>
+        <v>8.19849824E8</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
       </c>
       <c r="H51" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K51" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="M51" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C52" t="n">
-        <v>4.381404663E9</v>
+        <v>7.292247802E9</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
         <v>37</v>
       </c>
-      <c r="H52" t="s">
-        <v>45</v>
-      </c>
-      <c r="I52" t="s">
-        <v>20</v>
-      </c>
       <c r="J52" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="L52" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M52" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="C53" t="n">
-        <v>6.905934778E9</v>
+        <v>5.152253026E9</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" t="s">
         <v>33</v>
       </c>
-      <c r="G53" t="s">
-        <v>40</v>
-      </c>
-      <c r="H53" t="s">
-        <v>48</v>
-      </c>
-      <c r="I53" t="s">
-        <v>37</v>
-      </c>
-      <c r="J53" t="s">
-        <v>34</v>
-      </c>
-      <c r="K53" t="s">
-        <v>34</v>
-      </c>
-      <c r="L53" t="s">
-        <v>27</v>
-      </c>
       <c r="M53" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
@@ -2765,37 +2765,37 @@
         <v>161</v>
       </c>
       <c r="C54" t="n">
-        <v>4.155840517E9</v>
+        <v>9.125425524E9</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I54" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="K54" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M54" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55">
@@ -2806,37 +2806,37 @@
         <v>163</v>
       </c>
       <c r="C55" t="n">
-        <v>4.451181161E9</v>
+        <v>7.208066335E9</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I55" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K55" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="L55" t="s">
         <v>30</v>
       </c>
       <c r="M55" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -2847,37 +2847,37 @@
         <v>165</v>
       </c>
       <c r="C56" t="n">
-        <v>7.16725928E8</v>
+        <v>6.389628242E9</v>
       </c>
       <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" t="s">
         <v>17</v>
       </c>
-      <c r="E56" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H56" t="s">
-        <v>66</v>
-      </c>
-      <c r="I56" t="s">
-        <v>37</v>
-      </c>
-      <c r="J56" t="s">
-        <v>20</v>
-      </c>
       <c r="K56" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="L56" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M56" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -2888,37 +2888,37 @@
         <v>167</v>
       </c>
       <c r="C57" t="n">
-        <v>9.201538925E9</v>
+        <v>1248532.0</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" t="s">
         <v>66</v>
       </c>
-      <c r="H57" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" t="s">
-        <v>45</v>
-      </c>
       <c r="J57" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="K57" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L57" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="M57" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -2929,37 +2929,37 @@
         <v>169</v>
       </c>
       <c r="C58" t="n">
-        <v>2.162909705E9</v>
+        <v>5.003359771E9</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="H58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
         <v>66</v>
       </c>
-      <c r="I58" t="s">
-        <v>24</v>
-      </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K58" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L58" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M58" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
@@ -2970,37 +2970,37 @@
         <v>171</v>
       </c>
       <c r="C59" t="n">
-        <v>4.463974702E9</v>
+        <v>6.45669088E9</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" t="s">
         <v>30</v>
       </c>
-      <c r="F59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H59" t="s">
-        <v>63</v>
-      </c>
-      <c r="I59" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="L59" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59" t="s">
         <v>33</v>
-      </c>
-      <c r="K59" t="s">
-        <v>41</v>
-      </c>
-      <c r="L59" t="s">
-        <v>63</v>
-      </c>
-      <c r="M59" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="60">
@@ -3011,37 +3011,37 @@
         <v>173</v>
       </c>
       <c r="C60" t="n">
-        <v>6.01338043E9</v>
+        <v>2.533188802E9</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="J60" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K60" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L60" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M60" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/studentPreferences60.xlsx
+++ b/src/main/resources/studentPreferences60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="176">
   <si>
     <t>First Name</t>
   </si>
@@ -53,268 +53,319 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Shaylah</t>
-  </si>
-  <si>
-    <t>Braidford</t>
-  </si>
-  <si>
-    <t>French history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>losing court cases in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Priceline and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Relativity and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Taxi Driver and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TJ Hooker and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre-Revolutionary France and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> talking to mirrors in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Apolitical Cartoons and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Quinn</t>
-  </si>
-  <si>
-    <t>Middlewick</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Oratory and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>expressing violent urges in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Caprice</t>
-  </si>
-  <si>
-    <t>Shacklady</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  British class politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Roshelle</t>
-  </si>
-  <si>
-    <t>Plampin</t>
-  </si>
-  <si>
-    <t>Star Trek and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>playing the piano in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Ginny</t>
-  </si>
-  <si>
-    <t>Eaglen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>revolutionizing physics in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>writing folksy fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>breaking heads in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Xaviera</t>
-  </si>
-  <si>
-    <t>Shimmings</t>
+    <t>Victoir</t>
+  </si>
+  <si>
+    <t>Viggers</t>
+  </si>
+  <si>
+    <t>Soccer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>World War II and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>assassinating presidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anchorman and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>doing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>appeasing belligerent dictators in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Maighdiln</t>
+  </si>
+  <si>
+    <t>Doswell</t>
+  </si>
+  <si>
+    <t>playing soccer in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dystopian fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ezra</t>
+  </si>
+  <si>
+    <t>Lapish</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flaunting buttocks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Franklyn</t>
+  </si>
+  <si>
+    <t>Greader</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>writing science fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Mabson</t>
+  </si>
+  <si>
+    <t>causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>The Seinfeld Chronicles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>reading the news in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Wittie</t>
+  </si>
+  <si>
+    <t>Lindegard</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Gusti</t>
+  </si>
+  <si>
+    <t>Birtles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Vally</t>
+  </si>
+  <si>
+    <t>Gawthrop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Bekki</t>
+  </si>
+  <si>
+    <t>Faithfull</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> investigating alien abductions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gretal</t>
+  </si>
+  <si>
+    <t>Rodgier</t>
+  </si>
+  <si>
+    <t>singing jazz songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>throwing Bunga Bunga parties in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mechelle</t>
+  </si>
+  <si>
+    <t>Kynder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electricity and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Correna</t>
+  </si>
+  <si>
+    <t>Fetter</t>
   </si>
   <si>
     <t>singing pop songs in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t xml:space="preserve"> Roman politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Aeriell</t>
-  </si>
-  <si>
-    <t>Van Schafflaer</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rhetoric and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Elwira</t>
-  </si>
-  <si>
-    <t>Kestin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Russian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Curt</t>
-  </si>
-  <si>
-    <t>Pesticcio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Motor industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Balchin</t>
-  </si>
-  <si>
-    <t>Spenser</t>
-  </si>
-  <si>
-    <t>Pichmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Far Side and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Fee</t>
-  </si>
-  <si>
-    <t>Haryngton</t>
-  </si>
-  <si>
-    <t>Malynda</t>
-  </si>
-  <si>
-    <t>Collocott</t>
-  </si>
-  <si>
-    <t>Zane</t>
-  </si>
-  <si>
-    <t>Langstaff</t>
-  </si>
-  <si>
-    <t>American comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Lacie</t>
-  </si>
-  <si>
-    <t>Chupin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Bethany</t>
-  </si>
-  <si>
-    <t>Scorer</t>
-  </si>
-  <si>
-    <t>Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Evan</t>
-  </si>
-  <si>
-    <t>Muggach</t>
-  </si>
-  <si>
-    <t>Sheeree</t>
-  </si>
-  <si>
-    <t>Hobden</t>
-  </si>
-  <si>
-    <t>Bernadine</t>
-  </si>
-  <si>
-    <t>Airds</t>
+    <t>Adrianne</t>
+  </si>
+  <si>
+    <t>Pillifant</t>
+  </si>
+  <si>
+    <t>The X-Files and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Oran</t>
+  </si>
+  <si>
+    <t>McKean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bobbye</t>
+  </si>
+  <si>
+    <t>Harbord</t>
+  </si>
+  <si>
+    <t>Goldi</t>
+  </si>
+  <si>
+    <t>Dain</t>
+  </si>
+  <si>
+    <t>Talbot</t>
+  </si>
+  <si>
+    <t>Buesnel</t>
+  </si>
+  <si>
+    <t>Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Agnella</t>
+  </si>
+  <si>
+    <t>Fitchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Baldetti</t>
+  </si>
+  <si>
+    <t>Georgiana</t>
+  </si>
+  <si>
+    <t>Bugdell</t>
+  </si>
+  <si>
+    <t>Mordy</t>
+  </si>
+  <si>
+    <t>Wallworth</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Liggens</t>
+  </si>
+  <si>
+    <t>Florence and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Hyacinthe</t>
+  </si>
+  <si>
+    <t>Karpenko</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cammi</t>
+  </si>
+  <si>
+    <t>Yezafovich</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Bancroft</t>
+  </si>
+  <si>
+    <t>Medlin</t>
+  </si>
+  <si>
+    <t>starring in sit-coms in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edith</t>
+  </si>
+  <si>
+    <t>Mully</t>
   </si>
   <si>
     <t>Boyd</t>
@@ -323,217 +374,172 @@
     <t>Verman</t>
   </si>
   <si>
-    <t>Franklyn</t>
-  </si>
-  <si>
-    <t>Greader</t>
-  </si>
-  <si>
-    <t>Alaster</t>
-  </si>
-  <si>
-    <t>Jacobsohn</t>
-  </si>
-  <si>
-    <t>Isak</t>
-  </si>
-  <si>
-    <t>Nizard</t>
-  </si>
-  <si>
-    <t>Karalee</t>
-  </si>
-  <si>
-    <t>Funcheon</t>
-  </si>
-  <si>
-    <t>the Roman Empire and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Kermy</t>
-  </si>
-  <si>
-    <t>McQuillen</t>
-  </si>
-  <si>
-    <t>Vernice</t>
-  </si>
-  <si>
-    <t>Iacomelli</t>
-  </si>
-  <si>
-    <t>Lyndel</t>
-  </si>
-  <si>
-    <t>Tomson</t>
-  </si>
-  <si>
-    <t>Erinna</t>
-  </si>
-  <si>
-    <t>Ackerley</t>
-  </si>
-  <si>
-    <t>Dannie</t>
-  </si>
-  <si>
-    <t>Mame</t>
-  </si>
-  <si>
-    <t>Feaveryear</t>
-  </si>
-  <si>
-    <t>Carmelita</t>
-  </si>
-  <si>
-    <t>Filippov</t>
-  </si>
-  <si>
-    <t>Milty</t>
-  </si>
-  <si>
-    <t>Sommerfeld</t>
-  </si>
-  <si>
-    <t>Tobiah</t>
-  </si>
-  <si>
-    <t>Bastock</t>
-  </si>
-  <si>
-    <t>Tully</t>
-  </si>
-  <si>
-    <t>Urpeth</t>
-  </si>
-  <si>
-    <t>Raoul</t>
-  </si>
-  <si>
-    <t>Franscioni</t>
-  </si>
-  <si>
-    <t>Farra</t>
-  </si>
-  <si>
-    <t>Muzzollo</t>
-  </si>
-  <si>
-    <t>Malina</t>
-  </si>
-  <si>
-    <t>Josum</t>
-  </si>
-  <si>
-    <t>Barbey</t>
-  </si>
-  <si>
-    <t>Baiden</t>
-  </si>
-  <si>
-    <t>Artair</t>
-  </si>
-  <si>
-    <t>Napleton</t>
-  </si>
-  <si>
-    <t>Shara</t>
-  </si>
-  <si>
-    <t>Fewlass</t>
-  </si>
-  <si>
-    <t>Marchelle</t>
-  </si>
-  <si>
-    <t>Weaver</t>
-  </si>
-  <si>
-    <t>Zeke</t>
-  </si>
-  <si>
-    <t>Koubek</t>
-  </si>
-  <si>
-    <t>Anderea</t>
-  </si>
-  <si>
-    <t>Halls</t>
-  </si>
-  <si>
-    <t>Simone</t>
-  </si>
-  <si>
-    <t>McBrearty</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> European history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Livvie</t>
-  </si>
-  <si>
-    <t>Harmour</t>
-  </si>
-  <si>
-    <t>Sigismondo</t>
-  </si>
-  <si>
-    <t>Godlonton</t>
-  </si>
-  <si>
-    <t>Lilyan</t>
-  </si>
-  <si>
-    <t>Nourse</t>
-  </si>
-  <si>
-    <t>Myrvyn</t>
-  </si>
-  <si>
-    <t>Navein</t>
-  </si>
-  <si>
-    <t>Devon</t>
-  </si>
-  <si>
-    <t>Stovold</t>
-  </si>
-  <si>
-    <t>Sergent</t>
-  </si>
-  <si>
-    <t>aManger</t>
-  </si>
-  <si>
-    <t>Sammy</t>
-  </si>
-  <si>
-    <t>Meadows</t>
-  </si>
-  <si>
-    <t>Josie</t>
-  </si>
-  <si>
-    <t>Ewbanks</t>
-  </si>
-  <si>
-    <t>Othello</t>
-  </si>
-  <si>
-    <t>Clemmen</t>
-  </si>
-  <si>
-    <t>Mirabella</t>
-  </si>
-  <si>
-    <t>Goodbourn</t>
-  </si>
-  <si>
-    <t>Marena</t>
-  </si>
-  <si>
-    <t>Menpes</t>
+    <t>Nana</t>
+  </si>
+  <si>
+    <t>Muskett</t>
+  </si>
+  <si>
+    <t>Tamiko</t>
+  </si>
+  <si>
+    <t>Chamney</t>
+  </si>
+  <si>
+    <t>Ralina</t>
+  </si>
+  <si>
+    <t>Sultan</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Gabala</t>
+  </si>
+  <si>
+    <t>Melosa</t>
+  </si>
+  <si>
+    <t>Yakushkev</t>
+  </si>
+  <si>
+    <t>Sadie</t>
+  </si>
+  <si>
+    <t>Emmett</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
+    <t>Tames</t>
+  </si>
+  <si>
+    <t>Harri</t>
+  </si>
+  <si>
+    <t>Pellamonuten</t>
+  </si>
+  <si>
+    <t>Findley</t>
+  </si>
+  <si>
+    <t>Spensley</t>
+  </si>
+  <si>
+    <t>Ulrike</t>
+  </si>
+  <si>
+    <t>Gelly</t>
+  </si>
+  <si>
+    <t>Norbie</t>
+  </si>
+  <si>
+    <t>Wilber</t>
+  </si>
+  <si>
+    <t>Maurita</t>
+  </si>
+  <si>
+    <t>Couvet</t>
+  </si>
+  <si>
+    <t>Saleem</t>
+  </si>
+  <si>
+    <t>Geraudel</t>
+  </si>
+  <si>
+    <t>Gisella</t>
+  </si>
+  <si>
+    <t>Wannop</t>
+  </si>
+  <si>
+    <t>Jodi</t>
+  </si>
+  <si>
+    <t>Franzetti</t>
+  </si>
+  <si>
+    <t>Ashil</t>
+  </si>
+  <si>
+    <t>Demead</t>
+  </si>
+  <si>
+    <t>Kirbie</t>
+  </si>
+  <si>
+    <t>Pead</t>
+  </si>
+  <si>
+    <t>Mirilla</t>
+  </si>
+  <si>
+    <t>Eick</t>
+  </si>
+  <si>
+    <t>Harriet</t>
+  </si>
+  <si>
+    <t>Meindl</t>
+  </si>
+  <si>
+    <t>Cindelyn</t>
+  </si>
+  <si>
+    <t>Cropper</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Durban</t>
+  </si>
+  <si>
+    <t>Bud</t>
+  </si>
+  <si>
+    <t>Lawlee</t>
+  </si>
+  <si>
+    <t>Karlee</t>
+  </si>
+  <si>
+    <t>Paddington</t>
+  </si>
+  <si>
+    <t>Bridget</t>
+  </si>
+  <si>
+    <t>Walbrook</t>
+  </si>
+  <si>
+    <t>Briant</t>
+  </si>
+  <si>
+    <t>Koppelmann</t>
+  </si>
+  <si>
+    <t>Bronnie</t>
+  </si>
+  <si>
+    <t>Osgar</t>
+  </si>
+  <si>
+    <t>Padgett</t>
+  </si>
+  <si>
+    <t>Kellog</t>
+  </si>
+  <si>
+    <t>Dorelle</t>
+  </si>
+  <si>
+    <t>Brach</t>
   </si>
 </sst>
 </file>
@@ -633,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>5.17062029E8</v>
+        <v>7.16607226E9</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -651,19 +657,19 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -674,16 +680,16 @@
         <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>5.17062029E8</v>
+        <v>7.16607226E9</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -692,429 +698,429 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.975422439E9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.01197192E9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="n">
+        <v>3.573471036E9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="n">
-        <v>5.581396903E9</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.755324158E9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="n">
-        <v>7.59178159E8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
         <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="n">
+        <v>1.000423643E9</v>
+      </c>
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="n">
-        <v>7.64615006E9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>55</v>
       </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.823932859E9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="n">
-        <v>5.098446542E9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.796868178E9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
         <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.345427246E9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" t="n">
-        <v>4.981705294E9</v>
+        <v>6.50465645E8</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.352717283E9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="n">
-        <v>5.098446542E9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
         <v>71</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="n">
+        <v>1.246341234E9</v>
+      </c>
+      <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="n">
-        <v>2.913954937E9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
       <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" t="s">
-        <v>55</v>
-      </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
         <v>75</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="n">
+        <v>2.701322324E9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
         <v>76</v>
       </c>
-      <c r="C13" t="n">
-        <v>6.74210168E8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1125,201 +1131,201 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>7.317095954E9</v>
+        <v>9.197825762E9</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
         <v>81</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="n">
+        <v>7.327347668E9</v>
+      </c>
+      <c r="D15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" t="n">
-        <v>5.79888876E9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
-        <v>7.678783231E9</v>
+        <v>6.834265278E9</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C17" t="n">
-        <v>5.116954054E9</v>
+        <v>9.882934836E9</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" t="n">
-        <v>9.963166994E9</v>
+        <v>9.004981882E9</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1330,37 +1336,37 @@
         <v>93</v>
       </c>
       <c r="C19" t="n">
-        <v>8.138441997E9</v>
+        <v>1.9663322E7</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -1371,1510 +1377,1510 @@
         <v>96</v>
       </c>
       <c r="C20" t="n">
-        <v>5.140216794E9</v>
+        <v>1.74325131E8</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I20" t="s">
         <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="L20" t="s">
         <v>37</v>
       </c>
       <c r="M20" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" t="n">
-        <v>6.981951604E9</v>
+        <v>3.308501071E9</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="K21" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" t="n">
-        <v>5.548283026E9</v>
+        <v>3.917628316E9</v>
       </c>
       <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" t="s">
         <v>22</v>
       </c>
-      <c r="I22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" t="s">
-        <v>38</v>
-      </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M22" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" t="n">
-        <v>8.91692955E9</v>
+        <v>3.593665854E9</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
       <c r="K23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" t="s">
         <v>16</v>
       </c>
-      <c r="L23" t="s">
-        <v>26</v>
-      </c>
       <c r="M23" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C24" t="n">
-        <v>1.755324158E9</v>
+        <v>4.561307234E9</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="L24" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="M24" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C25" t="n">
-        <v>2.694860612E9</v>
+        <v>2.555074171E9</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" t="s">
         <v>53</v>
       </c>
-      <c r="F25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" t="s">
-        <v>42</v>
-      </c>
       <c r="L25" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="M25" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C26" t="n">
-        <v>2.664850725E9</v>
+        <v>2.499587511E9</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C27" t="n">
-        <v>2.3345654E7</v>
+        <v>1.2436743E7</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" t="s">
         <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" t="s">
-        <v>111</v>
-      </c>
-      <c r="M27" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="C28" t="n">
-        <v>1.859925444E9</v>
+        <v>1.000423643E9</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C29" t="n">
-        <v>5.84557521E9</v>
+        <v>4.261091566E9</v>
       </c>
       <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" t="s">
-        <v>41</v>
-      </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M29" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30" t="n">
-        <v>2.566612082E9</v>
+        <v>8.91692955E9</v>
       </c>
       <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
         <v>21</v>
       </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L30" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C31" t="n">
-        <v>2.533427487E9</v>
+        <v>1.53334489E9</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
         <v>20</v>
       </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" t="s">
-        <v>33</v>
-      </c>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="L31" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C32" t="n">
-        <v>5.992727338E9</v>
+        <v>6.610299962E9</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I32" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="L32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M32" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C33" t="n">
-        <v>1.503230976E9</v>
+        <v>1.456789E7</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J33" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L33" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="M33" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C34" t="n">
-        <v>5.438446341E9</v>
+        <v>1456573.0</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" t="s">
         <v>20</v>
       </c>
-      <c r="H34" t="s">
-        <v>69</v>
-      </c>
-      <c r="I34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" t="s">
-        <v>56</v>
-      </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="L34" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="M34" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C35" t="n">
-        <v>1.966233706E9</v>
+        <v>5.557773333E9</v>
       </c>
       <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" t="s">
         <v>20</v>
       </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" t="s">
-        <v>65</v>
-      </c>
-      <c r="J35" t="s">
-        <v>29</v>
-      </c>
       <c r="K35" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="L35" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C36" t="n">
-        <v>5.806624791E9</v>
+        <v>1.270622315E9</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M36" t="s">
         <v>53</v>
-      </c>
-      <c r="F36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M36" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C37" t="n">
-        <v>5.318934199E9</v>
+        <v>8.268663905E9</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L37" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M37" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C38" t="n">
-        <v>3.354471084E9</v>
+        <v>1.393150169E9</v>
       </c>
       <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
         <v>24</v>
       </c>
-      <c r="E38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" t="s">
-        <v>23</v>
-      </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="K38" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="L38" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M38" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C39" t="n">
-        <v>8.407967758E9</v>
+        <v>3.070513706E9</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L39" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="M39" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C40" t="n">
-        <v>1.33333345E8</v>
+        <v>8.83193935E8</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="L40" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M40" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="C41" t="n">
-        <v>4.01197192E9</v>
+        <v>5.833737324E9</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J41" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="K41" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="L41" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="M41" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C42" t="n">
-        <v>2.02092367E8</v>
+        <v>4.854983903E9</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="L42" t="s">
         <v>15</v>
       </c>
       <c r="M42" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C43" t="n">
-        <v>7.977909301E9</v>
+        <v>9.427403074E9</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="L43" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M43" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="C44" t="n">
-        <v>9.551000559E9</v>
+        <v>7.352717283E9</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" t="s">
         <v>21</v>
       </c>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-      <c r="I44" t="s">
-        <v>55</v>
-      </c>
-      <c r="J44" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" t="s">
-        <v>37</v>
-      </c>
       <c r="L44" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M44" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C45" t="n">
-        <v>2.075366384E9</v>
+        <v>3.251057646E9</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
         <v>16</v>
       </c>
-      <c r="H45" t="s">
-        <v>21</v>
-      </c>
       <c r="I45" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J45" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L45" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M45" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C46" t="n">
-        <v>7.087681295E9</v>
+        <v>1.3556753E7</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s">
         <v>16</v>
       </c>
       <c r="L46" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C47" t="n">
-        <v>7.292247802E9</v>
+        <v>5.702916415E9</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="K47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L47" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M47" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C48" t="n">
-        <v>1496062.0</v>
+        <v>3.168751052E9</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
         <v>35</v>
       </c>
-      <c r="H48" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" t="s">
-        <v>151</v>
-      </c>
-      <c r="L48" t="s">
-        <v>24</v>
-      </c>
       <c r="M48" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C49" t="n">
-        <v>3.921044913E9</v>
+        <v>6.10712903E9</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L49" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="M49" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C50" t="n">
-        <v>8.671182958E9</v>
+        <v>3.456789E7</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H50" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="L50" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="M50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C51" t="n">
-        <v>8.19849824E8</v>
+        <v>5.7956581E7</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="K51" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="L51" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M51" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C52" t="n">
-        <v>7.292247802E9</v>
+        <v>1.043699555E9</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="K52" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M52" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C53" t="n">
-        <v>5.152253026E9</v>
+        <v>2.449754883E9</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H53" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I53" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L53" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="M53" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C54" t="n">
-        <v>9.125425524E9</v>
+        <v>7.311052688E9</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J54" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="K54" t="s">
         <v>30</v>
       </c>
       <c r="L54" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M54" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C55" t="n">
-        <v>7.208066335E9</v>
+        <v>9.1072182E8</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K55" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L55" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M55" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C56" t="n">
-        <v>6.389628242E9</v>
+        <v>9.176320143E9</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="H56" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="J56" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="K56" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" t="s">
         <v>48</v>
-      </c>
-      <c r="L56" t="s">
-        <v>22</v>
       </c>
       <c r="M56" t="s">
         <v>18</v>
@@ -2882,166 +2888,166 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="C57" t="n">
-        <v>1248532.0</v>
+        <v>3.593665854E9</v>
       </c>
       <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" t="s">
         <v>48</v>
       </c>
-      <c r="E57" t="s">
-        <v>30</v>
-      </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H57" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="I57" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K57" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L57" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="M57" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C58" t="n">
-        <v>5.003359771E9</v>
+        <v>2.789847158E9</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="H58" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I58" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L58" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="M58" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C59" t="n">
-        <v>6.45669088E9</v>
+        <v>8.47263461E8</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="H59" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="I59" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J59" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L59" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M59" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C60" t="n">
-        <v>2.533188802E9</v>
+        <v>8.085449784E9</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" t="s">
+        <v>47</v>
+      </c>
+      <c r="J60" t="s">
         <v>25</v>
       </c>
-      <c r="H60" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" t="s">
-        <v>49</v>
-      </c>
-      <c r="J60" t="s">
-        <v>60</v>
-      </c>
       <c r="K60" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L60" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="M60" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/studentPreferences60.xlsx
+++ b/src/main/resources/studentPreferences60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="182">
   <si>
     <t>First Name</t>
   </si>
@@ -53,493 +53,472 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Sharron</t>
-  </si>
-  <si>
-    <t>Cominetti</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>convicting criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hobbit and the Cthulu mythos</t>
+    <t>Ric</t>
+  </si>
+  <si>
+    <t>Kinnett</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Socialism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chemistry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>smoking during recess in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>ranting about liberals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding Republicans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>making bad movie choices in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Modern literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Elly</t>
+  </si>
+  <si>
+    <t>Warder</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> falling in love in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Chrystal Meth and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>the Nazi Party and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Harri</t>
+  </si>
+  <si>
+    <t>Pellamonuten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Melisenda</t>
+  </si>
+  <si>
+    <t>MacEntee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cooking and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Edita</t>
+  </si>
+  <si>
+    <t>Dami</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Third Reich and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Antonetta</t>
+  </si>
+  <si>
+    <t>Worham</t>
+  </si>
+  <si>
+    <t>the French Revolution and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Motor industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Merill</t>
+  </si>
+  <si>
+    <t>Tydd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making provocative documentaries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rolf</t>
+  </si>
+  <si>
+    <t>Arzu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Maxine</t>
+  </si>
+  <si>
+    <t>Dyerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Ilaire</t>
+  </si>
+  <si>
+    <t>Scrase</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Technology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Pippa</t>
+  </si>
+  <si>
+    <t>Balch</t>
+  </si>
+  <si>
+    <t>Darby</t>
+  </si>
+  <si>
+    <t>Mapplebeck</t>
+  </si>
+  <si>
+    <t>Holly</t>
+  </si>
+  <si>
+    <t>Hutten</t>
+  </si>
+  <si>
+    <t>Mutiny on the Bounty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Stevana</t>
+  </si>
+  <si>
+    <t>Manning</t>
+  </si>
+  <si>
+    <t>Ragnar</t>
+  </si>
+  <si>
+    <t>Fransewich</t>
+  </si>
+  <si>
+    <t>Annabelle</t>
+  </si>
+  <si>
+    <t>Boldry</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Conrad</t>
+  </si>
+  <si>
+    <t>Stubbley</t>
+  </si>
+  <si>
+    <t>Nessi</t>
+  </si>
+  <si>
+    <t>Konig</t>
+  </si>
+  <si>
+    <t>Flss</t>
+  </si>
+  <si>
+    <t>Kleinerman</t>
+  </si>
+  <si>
+    <t>fighting in duels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Madel</t>
+  </si>
+  <si>
+    <t>Shortall</t>
+  </si>
+  <si>
+    <t>Meggi</t>
+  </si>
+  <si>
+    <t>Brunnstein</t>
+  </si>
+  <si>
+    <t>Maighdiln</t>
+  </si>
+  <si>
+    <t>Doswell</t>
+  </si>
+  <si>
+    <t>Brittni</t>
+  </si>
+  <si>
+    <t>Grisley</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Tabbernor</t>
+  </si>
+  <si>
+    <t>Twyla</t>
+  </si>
+  <si>
+    <t>Beckhurst</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Kolyagin</t>
+  </si>
+  <si>
+    <t>Garrek</t>
+  </si>
+  <si>
+    <t>Wakeling</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Ange</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Jeremias</t>
+  </si>
+  <si>
+    <t>Gotfrey</t>
+  </si>
+  <si>
+    <t>Olympics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Emeline</t>
+  </si>
+  <si>
+    <t>Airs</t>
+  </si>
+  <si>
+    <t>Rodina</t>
+  </si>
+  <si>
+    <t>Dawnay</t>
   </si>
   <si>
     <t>Acting and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> the Movie business and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making fantasy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> building airplanes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Piano music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>concocting magic potions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Linux and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Quincy</t>
-  </si>
-  <si>
-    <t>Elphick</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Magic and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Karlik</t>
-  </si>
-  <si>
-    <t>Ten Broek</t>
-  </si>
-  <si>
-    <t>Rick and Morty and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>attacking paparazzi in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Anthropology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Franklyn</t>
-  </si>
-  <si>
-    <t>Greader</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing open-source software in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Armin</t>
-  </si>
-  <si>
-    <t>Robion</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Melloney</t>
-  </si>
-  <si>
-    <t>Leathe</t>
-  </si>
-  <si>
-    <t>writing short stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Depport</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Saxophone music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing street magic in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Chlo</t>
-  </si>
-  <si>
-    <t>Shubotham</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing historical fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Manolo</t>
-  </si>
-  <si>
-    <t>Scannell</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Nevsa</t>
-  </si>
-  <si>
-    <t>Scantleberry</t>
-  </si>
-  <si>
-    <t>making antisemitic remarks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jocelin</t>
-  </si>
-  <si>
-    <t>Abrahart</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Rome and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Nichol</t>
-  </si>
-  <si>
-    <t>Blackader</t>
-  </si>
-  <si>
-    <t>Roman politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Novelia</t>
-  </si>
-  <si>
-    <t>Fancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Street Magic and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Monacco and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Hill</t>
-  </si>
-  <si>
-    <t>Tabbernor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> treating diseases in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Murdoch</t>
-  </si>
-  <si>
-    <t>Wieprecht</t>
-  </si>
-  <si>
-    <t>David Copperfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>protecting criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>Bidgod</t>
-  </si>
-  <si>
-    <t>Ken</t>
-  </si>
-  <si>
-    <t>Wescott</t>
-  </si>
-  <si>
-    <t>Jennilee</t>
-  </si>
-  <si>
-    <t>Junes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Operating Systems and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Malorie</t>
-  </si>
-  <si>
-    <t>Gregh</t>
-  </si>
-  <si>
-    <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tammara</t>
-  </si>
-  <si>
-    <t>Jado</t>
-  </si>
-  <si>
-    <t>Windy</t>
-  </si>
-  <si>
-    <t>Doag</t>
-  </si>
-  <si>
-    <t>Carley</t>
-  </si>
-  <si>
-    <t>Mungham</t>
-  </si>
-  <si>
-    <t>Dannie</t>
-  </si>
-  <si>
-    <t>Van Schafflaer</t>
-  </si>
-  <si>
-    <t>Nessi</t>
-  </si>
-  <si>
-    <t>Konig</t>
-  </si>
-  <si>
-    <t>Skylar</t>
-  </si>
-  <si>
-    <t>Frankiss</t>
-  </si>
-  <si>
-    <t>Corrie</t>
-  </si>
-  <si>
-    <t>Batham</t>
-  </si>
-  <si>
-    <t>standing up to bullies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Everard</t>
-  </si>
-  <si>
-    <t>Jansky</t>
-  </si>
-  <si>
-    <t>Bonita</t>
-  </si>
-  <si>
-    <t>Gegg</t>
-  </si>
-  <si>
-    <t>Davita</t>
-  </si>
-  <si>
-    <t>Cammocke</t>
-  </si>
-  <si>
-    <t>Averell</t>
-  </si>
-  <si>
-    <t>Kelloch</t>
-  </si>
-  <si>
-    <t>Lyssa</t>
-  </si>
-  <si>
-    <t>Scherer</t>
-  </si>
-  <si>
-    <t>Diagnostic medicine and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Maddy</t>
-  </si>
-  <si>
-    <t>Staite</t>
-  </si>
-  <si>
-    <t>Georgeta</t>
-  </si>
-  <si>
-    <t>Hoyte</t>
-  </si>
-  <si>
-    <t>Tilly</t>
-  </si>
-  <si>
-    <t>Gaskell</t>
-  </si>
-  <si>
-    <t>Wrestling and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Shellysheldon</t>
-  </si>
-  <si>
-    <t>Lidgley</t>
-  </si>
-  <si>
-    <t>Antoine</t>
-  </si>
-  <si>
-    <t>Muldowney</t>
-  </si>
-  <si>
-    <t>Bethany</t>
-  </si>
-  <si>
-    <t>Scorer</t>
-  </si>
-  <si>
-    <t>Rochella</t>
-  </si>
-  <si>
-    <t>Skocroft</t>
-  </si>
-  <si>
-    <t>Clareta</t>
-  </si>
-  <si>
-    <t>Lared</t>
-  </si>
-  <si>
-    <t>Micah</t>
-  </si>
-  <si>
-    <t>Runcie</t>
-  </si>
-  <si>
-    <t>Audrey</t>
-  </si>
-  <si>
-    <t>Southerell</t>
-  </si>
-  <si>
-    <t>Jerrylee</t>
-  </si>
-  <si>
-    <t>Siflet</t>
-  </si>
-  <si>
-    <t>Teresita</t>
-  </si>
-  <si>
-    <t>Cheri</t>
-  </si>
-  <si>
-    <t>Eversley</t>
-  </si>
-  <si>
-    <t>Bendicty</t>
-  </si>
-  <si>
-    <t>Moores</t>
-  </si>
-  <si>
-    <t>Rochester</t>
-  </si>
-  <si>
-    <t>Forlong</t>
-  </si>
-  <si>
-    <t>Noami</t>
-  </si>
-  <si>
-    <t>Anscombe</t>
-  </si>
-  <si>
-    <t>Brendan</t>
-  </si>
-  <si>
-    <t>Ladbrook</t>
-  </si>
-  <si>
-    <t>Roxana</t>
-  </si>
-  <si>
-    <t>Hakking</t>
-  </si>
-  <si>
-    <t>Clary</t>
-  </si>
-  <si>
-    <t>Gerardet</t>
-  </si>
-  <si>
-    <t>Margarethe</t>
-  </si>
-  <si>
-    <t>Torrecilla</t>
-  </si>
-  <si>
-    <t>Laraine</t>
-  </si>
-  <si>
-    <t>Dumphry</t>
-  </si>
-  <si>
-    <t>Vince</t>
-  </si>
-  <si>
-    <t>Ellgood</t>
-  </si>
-  <si>
-    <t>Zeke</t>
-  </si>
-  <si>
-    <t>Koubek</t>
+    <t>Theodoric</t>
+  </si>
+  <si>
+    <t>Blain</t>
+  </si>
+  <si>
+    <t>Clarette</t>
+  </si>
+  <si>
+    <t>Bellew</t>
+  </si>
+  <si>
+    <t>Lamont</t>
+  </si>
+  <si>
+    <t>Huntingdon</t>
+  </si>
+  <si>
+    <t>Dogme and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Francine</t>
+  </si>
+  <si>
+    <t>MacMenamy</t>
+  </si>
+  <si>
+    <t>Heath</t>
+  </si>
+  <si>
+    <t>Learmonth</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Grubey</t>
+  </si>
+  <si>
+    <t>Starr</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Jemmy</t>
+  </si>
+  <si>
+    <t>Eskell</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>Filchakov</t>
+  </si>
+  <si>
+    <t>Farlee</t>
+  </si>
+  <si>
+    <t>Moral</t>
+  </si>
+  <si>
+    <t>Wandie</t>
+  </si>
+  <si>
+    <t>Balsdon</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Richardot</t>
+  </si>
+  <si>
+    <t>making new wave movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cherlyn</t>
+  </si>
+  <si>
+    <t>Vaisey</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Fania</t>
+  </si>
+  <si>
+    <t>Weagener</t>
+  </si>
+  <si>
+    <t>Beverie</t>
+  </si>
+  <si>
+    <t>Loosely</t>
+  </si>
+  <si>
+    <t>Carly</t>
+  </si>
+  <si>
+    <t>Burnitt</t>
+  </si>
+  <si>
+    <t>Gilles</t>
+  </si>
+  <si>
+    <t>Demann</t>
+  </si>
+  <si>
+    <t>Lay</t>
+  </si>
+  <si>
+    <t>Remnant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Audie</t>
+  </si>
+  <si>
+    <t>Rouch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Sheelah</t>
+  </si>
+  <si>
+    <t>Harbar</t>
   </si>
   <si>
     <t>Vernice</t>
@@ -548,13 +527,37 @@
     <t>Iacomelli</t>
   </si>
   <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Farryn</t>
+    <t>Caressa</t>
+  </si>
+  <si>
+    <t>Doughton</t>
+  </si>
+  <si>
+    <t>Saunders</t>
+  </si>
+  <si>
+    <t>Dulwich</t>
+  </si>
+  <si>
+    <t>Documentaries and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Sylas</t>
+  </si>
+  <si>
+    <t>Dorow</t>
+  </si>
+  <si>
+    <t>Annaliese</t>
+  </si>
+  <si>
+    <t>Gidman</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Fetterplace</t>
   </si>
 </sst>
 </file>
@@ -607,43 +610,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C1" t="n">
+        <v>4.352354365536E12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -654,611 +657,611 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>6.620918919E9</v>
+        <v>4.352354365536E12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>6.620918919E9</v>
+        <v>3.320081493E9</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>5.91008718E9</v>
+        <v>1.393150169E9</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>5.947986104E9</v>
+        <v>6.86871887E8</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>1.755324158E9</v>
+        <v>8.853723164E9</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
-        <v>5.77958311E9</v>
+        <v>1.1331657E9</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
-        <v>1.168764569E9</v>
+        <v>2.468089124E9</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C9" t="n">
-        <v>3.7478562E7</v>
+        <v>7.582810302E9</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
         <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" t="n">
-        <v>5.423124325E9</v>
+        <v>1.021344999E9</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
         <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C11" t="n">
-        <v>4.129466605E9</v>
+        <v>8.788101659E9</v>
       </c>
       <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C12" t="n">
-        <v>6.601294307E9</v>
+        <v>7.875872956E9</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C13" t="n">
-        <v>8.87215453E9</v>
+        <v>2.391397916E9</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" t="n">
-        <v>2.252603457E9</v>
+        <v>4.66666667E8</v>
       </c>
       <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" t="s">
         <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" t="n">
-        <v>9.104648698E9</v>
+        <v>6.65354893E8</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" t="s">
-        <v>47</v>
-      </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C16" t="n">
-        <v>4.129466605E9</v>
+        <v>7.903976101E9</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -1269,37 +1272,37 @@
         <v>86</v>
       </c>
       <c r="C17" t="n">
-        <v>9.78189718E9</v>
+        <v>4.774668767E9</v>
       </c>
       <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
-      </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
         <v>87</v>
       </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s">
-        <v>40</v>
-      </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1310,977 +1313,977 @@
         <v>89</v>
       </c>
       <c r="C18" t="n">
-        <v>1.46742345E8</v>
+        <v>1.70666304E8</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C19" t="n">
-        <v>5.345271302E9</v>
+        <v>3.786368248E9</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C20" t="n">
-        <v>9.832878995E9</v>
+        <v>9.04277701E9</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" t="n">
-        <v>8.291431675E9</v>
+        <v>3.813550076E9</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
         <v>34</v>
       </c>
       <c r="I21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" t="s">
         <v>16</v>
-      </c>
-      <c r="J21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C22" t="n">
-        <v>9.561360279E9</v>
+        <v>2.590440909E9</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="M22" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>6.14466105E9</v>
+        <v>6.975422439E9</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="K23" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C24" t="n">
-        <v>6.742037365E9</v>
+        <v>6.41400314E8</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" t="s">
         <v>26</v>
       </c>
-      <c r="K24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" t="s">
-        <v>36</v>
-      </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C25" t="n">
-        <v>7.544202614E9</v>
+        <v>9.78189718E9</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L25" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C26" t="n">
-        <v>5.992727338E9</v>
+        <v>6.681787684E9</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
         <v>18</v>
       </c>
-      <c r="F26" t="s">
-        <v>82</v>
-      </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="M26" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C27" t="n">
-        <v>3.786368248E9</v>
+        <v>3.863210851E9</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
         <v>24</v>
       </c>
-      <c r="F27" t="s">
-        <v>82</v>
-      </c>
       <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="H27" t="s">
-        <v>69</v>
-      </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="L27" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C28" t="n">
-        <v>3.693145987E9</v>
+        <v>4.933016784E9</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="K28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" t="n">
-        <v>1.840214615E9</v>
+        <v>5.555342123E9</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" t="s">
         <v>17</v>
       </c>
-      <c r="H29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" t="s">
-        <v>18</v>
-      </c>
       <c r="M29" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C30" t="n">
-        <v>5.513555756E9</v>
+        <v>9.143057836E9</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="L30" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M30" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C31" t="n">
-        <v>7.897425811E9</v>
+        <v>5.5555543241E10</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="M31" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C32" t="n">
-        <v>8.123987753E9</v>
+        <v>3.260151108E9</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="I32" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="M32" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" t="n">
-        <v>9.639897045E9</v>
+        <v>9.849198885E9</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
         <v>41</v>
       </c>
-      <c r="F33" t="s">
-        <v>34</v>
-      </c>
       <c r="G33" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" t="s">
+        <v>117</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" t="s">
         <v>24</v>
-      </c>
-      <c r="H33" t="s">
-        <v>90</v>
-      </c>
-      <c r="I33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" t="s">
-        <v>52</v>
-      </c>
-      <c r="L33" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C34" t="n">
-        <v>5.50802125E8</v>
+        <v>4.77470246E9</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="K34" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C35" t="n">
-        <v>4.688559036E9</v>
+        <v>1.336253213E9</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="K35" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="L35" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="M35" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" t="n">
-        <v>6.444980293E9</v>
+        <v>7.762891985E9</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H36" t="s">
         <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L36" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M36" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C37" t="n">
-        <v>6.25273085E8</v>
+        <v>5.348980361E9</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="J37" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K37" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="L37" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="M37" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C38" t="n">
-        <v>8.8569639E7</v>
+        <v>7.842346957E9</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H38" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I38" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="K38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L38" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="M38" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="C39" t="n">
-        <v>8.7452367324E10</v>
+        <v>9.110537963E9</v>
       </c>
       <c r="D39" t="s">
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="K39" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="L39" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M39" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C40" t="n">
-        <v>8.138441997E9</v>
+        <v>1.393396161E9</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s">
         <v>18</v>
       </c>
-      <c r="F40" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" t="s">
-        <v>32</v>
-      </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="L40" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M40" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C41" t="n">
-        <v>9.611973024E9</v>
+        <v>9.030828518E9</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H41" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J41" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="K41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L41" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="M41" t="s">
         <v>26</v>
@@ -2288,781 +2291,740 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C42" t="n">
-        <v>2.674439968E9</v>
+        <v>1.159044669E9</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I42" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="L42" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="M42" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C43" t="n">
-        <v>3.359967091E9</v>
+        <v>5.222967804E9</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="J43" t="s">
         <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="L43" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C44" t="n">
-        <v>4.179392023E9</v>
+        <v>8.01751026E9</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
         <v>29</v>
       </c>
-      <c r="F44" t="s">
-        <v>69</v>
-      </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="J44" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L44" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="M44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C45" t="n">
-        <v>5.386300114E9</v>
+        <v>2.05938172E9</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J45" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L45" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="M45" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="C46" t="n">
-        <v>6.791667733E9</v>
+        <v>1.681410552E9</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" t="s">
+        <v>152</v>
+      </c>
+      <c r="M46" t="s">
         <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>129</v>
-      </c>
-      <c r="H46" t="s">
-        <v>52</v>
-      </c>
-      <c r="I46" t="s">
-        <v>41</v>
-      </c>
-      <c r="J46" t="s">
-        <v>33</v>
-      </c>
-      <c r="K46" t="s">
-        <v>136</v>
-      </c>
-      <c r="L46" t="s">
-        <v>136</v>
-      </c>
-      <c r="M46" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="C47" t="n">
-        <v>7.544202614E9</v>
+        <v>5.492537105E9</v>
       </c>
       <c r="D47" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" t="s">
         <v>34</v>
       </c>
-      <c r="E47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" t="s">
-        <v>68</v>
-      </c>
-      <c r="L47" t="s">
-        <v>72</v>
-      </c>
       <c r="M47" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C48" t="n">
-        <v>9.94736796E8</v>
+        <v>6.00337927E8</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="G48" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J48" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="L48" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M48" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C49" t="n">
-        <v>3.883323544E9</v>
+        <v>6.34393125E9</v>
       </c>
       <c r="D49" t="s">
         <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H49" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="I49" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="K49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L49" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="M49" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C50" t="n">
-        <v>7.160571579E9</v>
+        <v>4.620913006E9</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="H50" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J50" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="L50" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="M50" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C51" t="n">
-        <v>9.375832338E9</v>
+        <v>7.9270647E7</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" t="s">
         <v>17</v>
       </c>
-      <c r="H51" t="s">
-        <v>15</v>
-      </c>
       <c r="I51" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="J51" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="K51" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="L51" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C52" t="n">
-        <v>1.1111115557E10</v>
+        <v>6.655368898E9</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H52" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" t="s">
         <v>26</v>
       </c>
-      <c r="H52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" t="s">
-        <v>36</v>
-      </c>
-      <c r="J52" t="s">
-        <v>17</v>
-      </c>
       <c r="K52" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="L52" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="M52" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C53" t="n">
-        <v>3.834527412E9</v>
+        <v>3.47441999E9</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I53" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="K53" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="L53" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="M53" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C54" t="n">
-        <v>1.386782423E9</v>
+        <v>5.84557521E9</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H54" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="K54" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="M54" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C55" t="n">
-        <v>7.62942782E9</v>
+        <v>4.357389374E9</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" t="s">
         <v>16</v>
       </c>
-      <c r="G55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" t="s">
-        <v>32</v>
-      </c>
       <c r="J55" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="K55" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L55" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M55" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C56" t="n">
-        <v>1.06927634E8</v>
+        <v>7.631567257E9</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" t="s">
+        <v>175</v>
+      </c>
+      <c r="J56" t="s">
         <v>29</v>
       </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" t="s">
-        <v>59</v>
-      </c>
-      <c r="I56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" t="s">
-        <v>103</v>
-      </c>
       <c r="K56" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="L56" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M56" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C57" t="n">
-        <v>3.211022739E9</v>
+        <v>9.126817195E9</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="H57" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="I57" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="J57" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="L57" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="M57" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C58" t="n">
-        <v>7.087681295E9</v>
+        <v>6.394251121E9</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s">
+        <v>43</v>
+      </c>
+      <c r="J58" t="s">
+        <v>60</v>
+      </c>
+      <c r="K58" t="s">
         <v>68</v>
       </c>
-      <c r="F58" t="s">
-        <v>99</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" t="s">
-        <v>41</v>
-      </c>
-      <c r="I58" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" t="s">
-        <v>83</v>
-      </c>
-      <c r="K58" t="s">
-        <v>78</v>
-      </c>
       <c r="L58" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M58" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C59" t="n">
-        <v>5.84557521E9</v>
+        <v>8.28630724E9</v>
       </c>
       <c r="D59" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="E59" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="H59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="J59" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59" t="s">
         <v>34</v>
       </c>
-      <c r="K59" t="s">
-        <v>17</v>
-      </c>
       <c r="L59" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="M59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>179</v>
-      </c>
-      <c r="B60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4.757672682E9</v>
-      </c>
-      <c r="D60" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" t="s">
-        <v>40</v>
-      </c>
-      <c r="G60" t="s">
-        <v>82</v>
-      </c>
-      <c r="H60" t="s">
         <v>29</v>
-      </c>
-      <c r="I60" t="s">
-        <v>47</v>
-      </c>
-      <c r="J60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60" t="s">
-        <v>24</v>
-      </c>
-      <c r="L60" t="s">
-        <v>15</v>
-      </c>
-      <c r="M60" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
